--- a/JD(20260107).xlsx
+++ b/JD(20260107).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp_space\DS training\Ten_syoku_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1 ydd's space\ds\JDbot\Ten_syoku_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6374B654-45F3-49D9-9BC3-A9193915A2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6F89A3-9114-4EB6-893C-5BC186325F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{73A48548-BB8D-4428-A6E4-C45CCBF17844}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{73A48548-BB8D-4428-A6E4-C45CCBF17844}"/>
   </bookViews>
   <sheets>
     <sheet name="jd_data_structured" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">jd_data_structured!$A$1:$N$75</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="642">
   <si>
     <t>番号</t>
   </si>
@@ -1948,6 +1964,10 @@
   </si>
   <si>
     <t>ＴＩＳ株式会社</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>楽天グループ株式会社</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1955,11 +1975,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1967,7 +1987,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1975,7 +1995,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="游ゴシック Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -1984,7 +2004,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1993,7 +2013,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2002,7 +2022,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2010,7 +2030,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2018,7 +2038,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2026,7 +2046,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2034,7 +2054,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2043,7 +2063,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2052,7 +2072,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2060,7 +2080,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2069,7 +2089,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2077,7 +2097,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2086,7 +2106,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2095,7 +2115,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2103,21 +2123,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2587,48 +2607,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2653,7 +2673,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2973,17 +2993,17 @@
   <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="12.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="10" max="10" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="12.9375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.234375" customWidth="1"/>
+    <col min="10" max="10" width="12.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3027,7 +3047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="2" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1423</v>
       </c>
@@ -3068,7 +3088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="3" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>1456</v>
       </c>
@@ -3109,7 +3129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="4" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>1460</v>
       </c>
@@ -3150,7 +3170,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="5" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>1455</v>
       </c>
@@ -3191,7 +3211,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1452</v>
       </c>
@@ -3205,7 +3225,7 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>641</v>
       </c>
       <c r="F6" s="2">
         <v>28261</v>
@@ -3233,7 +3253,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="3" customFormat="1">
+    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1458</v>
       </c>
@@ -3275,7 +3295,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="8" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>1459</v>
       </c>
@@ -3316,7 +3336,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1">
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1449</v>
       </c>
@@ -3358,7 +3378,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="3" customFormat="1">
+    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1464</v>
       </c>
@@ -3400,7 +3420,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="11" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>1469</v>
       </c>
@@ -3438,7 +3458,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="12" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>1453</v>
       </c>
@@ -3479,7 +3499,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="13" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>1454</v>
       </c>
@@ -3520,7 +3540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="14" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>1436</v>
       </c>
@@ -3561,7 +3581,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="15" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>1420</v>
       </c>
@@ -3602,7 +3622,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1421</v>
       </c>
@@ -3643,7 +3663,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>1419</v>
       </c>
@@ -3685,7 +3705,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="18" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>1406</v>
       </c>
@@ -3726,7 +3746,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1417</v>
       </c>
@@ -3767,7 +3787,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>1418</v>
       </c>
@@ -3809,7 +3829,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>1445</v>
       </c>
@@ -3851,7 +3871,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="22" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>1442</v>
       </c>
@@ -3889,7 +3909,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="23" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>1434</v>
       </c>
@@ -3930,7 +3950,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1444</v>
       </c>
@@ -3968,7 +3988,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="3" customFormat="1">
+    <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1433</v>
       </c>
@@ -4008,7 +4028,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1394</v>
       </c>
@@ -4049,7 +4069,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1422</v>
       </c>
@@ -4090,7 +4110,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>1461</v>
       </c>
@@ -4132,7 +4152,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="29" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>1412</v>
       </c>
@@ -4173,7 +4193,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1435</v>
       </c>
@@ -4214,7 +4234,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="31" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>1407</v>
       </c>
@@ -4252,7 +4272,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>1404</v>
       </c>
@@ -4294,7 +4314,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>1397</v>
       </c>
@@ -4336,7 +4356,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1451</v>
       </c>
@@ -4374,7 +4394,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1395</v>
       </c>
@@ -4415,7 +4435,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1396</v>
       </c>
@@ -4456,7 +4476,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1398</v>
       </c>
@@ -4497,7 +4517,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="38" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>1429</v>
       </c>
@@ -4538,7 +4558,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>1428</v>
       </c>
@@ -4580,7 +4600,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="40" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>1401</v>
       </c>
@@ -4621,7 +4641,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="41" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>1411</v>
       </c>
@@ -4662,7 +4682,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="42" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>1427</v>
       </c>
@@ -4703,7 +4723,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="43" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>1405</v>
       </c>
@@ -4744,7 +4764,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="44" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>1441</v>
       </c>
@@ -4785,7 +4805,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="45" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>1431</v>
       </c>
@@ -4826,7 +4846,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="46" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>1450</v>
       </c>
@@ -4867,7 +4887,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="47" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>1443</v>
       </c>
@@ -4908,7 +4928,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="48" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>1438</v>
       </c>
@@ -4949,7 +4969,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="49" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>1414</v>
       </c>
@@ -4990,7 +5010,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="50" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>1415</v>
       </c>
@@ -5028,7 +5048,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="51" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>1400</v>
       </c>
@@ -5066,7 +5086,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="52" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>1426</v>
       </c>
@@ -5104,7 +5124,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="53" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>1425</v>
       </c>
@@ -5145,7 +5165,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="54" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>1465</v>
       </c>
@@ -5186,7 +5206,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="55" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>1411</v>
       </c>
@@ -5227,7 +5247,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="56" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>1457</v>
       </c>
@@ -5268,7 +5288,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="57" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>1462</v>
       </c>
@@ -5309,7 +5329,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="58" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>1432</v>
       </c>
@@ -5350,7 +5370,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="59" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>1440</v>
       </c>
@@ -5391,7 +5411,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="60" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>1409</v>
       </c>
@@ -5432,7 +5452,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="61" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>1408</v>
       </c>
@@ -5473,7 +5493,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="62" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>1424</v>
       </c>
@@ -5514,7 +5534,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="63" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>1399</v>
       </c>
@@ -5552,7 +5572,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="64" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>1403</v>
       </c>
@@ -5590,7 +5610,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="65" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>1437</v>
       </c>
@@ -5631,7 +5651,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="66" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>1416</v>
       </c>
@@ -5672,7 +5692,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="67" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>1410</v>
       </c>
@@ -5713,7 +5733,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="68" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>1439</v>
       </c>
@@ -5754,7 +5774,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="69" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>1466</v>
       </c>
@@ -5792,7 +5812,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="70" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>1402</v>
       </c>
@@ -5830,7 +5850,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="71" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>1468</v>
       </c>
@@ -5868,7 +5888,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="72" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>1448</v>
       </c>
@@ -5909,7 +5929,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="73" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>1447</v>
       </c>
@@ -5950,7 +5970,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="74" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>1430</v>
       </c>
@@ -5991,7 +6011,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="3" customFormat="1" hidden="1">
+    <row r="75" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>1463</v>
       </c>
@@ -6040,5 +6060,6 @@
   </autoFilter>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>